--- a/data/db_source/tag_folder.xlsx
+++ b/data/db_source/tag_folder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannuaire/datannuaire_dev/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1781EE6-593C-CE45-AA5B-0695B830DE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A97D4D0-F572-2B45-81CD-EF8BF1446A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>tag_id</t>
   </si>
@@ -33,16 +33,22 @@
     <t>folder_id</t>
   </si>
   <si>
-    <t>folder_1</t>
-  </si>
-  <si>
-    <t>tag_3</t>
-  </si>
-  <si>
-    <t>folder_2</t>
-  </si>
-  <si>
-    <t>tag_1</t>
+    <t>personal_data</t>
+  </si>
+  <si>
+    <t>bevnat</t>
+  </si>
+  <si>
+    <t>statpop</t>
+  </si>
+  <si>
+    <t>sensible_data</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>societe</t>
   </si>
 </sst>
 </file>
@@ -98,8 +104,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{818938FF-6239-C24D-9DA9-32D4697992C6}" name="Tableau1" displayName="Tableau1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{818938FF-6239-C24D-9DA9-32D4697992C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{818938FF-6239-C24D-9DA9-32D4697992C6}" name="Tableau1" displayName="Tableau1" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{818938FF-6239-C24D-9DA9-32D4697992C6}"/>
   <tableColumns count="2">
     <tableColumn id="3" xr3:uid="{8A4EDA13-2538-3045-8E14-C1103781408F}" name="tag_id"/>
     <tableColumn id="2" xr3:uid="{CF1564A4-203C-9047-A417-0A48E9B09C5F}" name="folder_id"/>
@@ -430,18 +436,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -455,17 +461,49 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
